--- a/data/trans_orig/Q03B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_R-Edad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7611400809242606</v>
+        <v>0.7484722237315544</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8546208433605891</v>
+        <v>0.8697327034673284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.122762615054548</v>
+        <v>1.129517213723405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.876195226863878</v>
+        <v>1.873497393925961</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.979918405680266</v>
+        <v>1.962527731627928</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.055488048587959</v>
+        <v>2.05504395583355</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.337667991459175</v>
+        <v>1.335975183648716</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.423151101334614</v>
+        <v>1.433704348024274</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.616780074537175</v>
+        <v>1.617045178229274</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.018863285623242</v>
+        <v>1.014430574611763</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.128468725092507</v>
+        <v>1.139761891025099</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.387113132023421</v>
+        <v>1.383794861190466</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.240525579184812</v>
+        <v>2.228040786315254</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.292298762734208</v>
+        <v>2.292508054280848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.344899313923314</v>
+        <v>2.346938715509491</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.570802194040417</v>
+        <v>1.565130484457446</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.655354215324163</v>
+        <v>1.645810130584749</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.821365040412332</v>
+        <v>1.818921127144932</v>
       </c>
     </row>
     <row r="7">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1.356079572443946</v>
+        <v>1.356079572443945</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1.494982716414041</v>
@@ -754,10 +754,10 @@
         <v>1.716749533334848</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.302594175277482</v>
+        <v>3.302594175277483</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.384616870136035</v>
+        <v>3.384616870136036</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>3.369778569827808</v>
@@ -766,7 +766,7 @@
         <v>2.261044654643147</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.390314852261957</v>
+        <v>2.390314852261956</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.532806032721119</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.22853333683424</v>
+        <v>1.227190378763204</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.399869056266406</v>
+        <v>1.402785519719515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.631542473730192</v>
+        <v>1.626241834645728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.142775424387973</v>
+        <v>3.135195391301787</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.225272630067423</v>
+        <v>3.243377477308673</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.204544036434771</v>
+        <v>3.224198436015751</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.142295162588224</v>
+        <v>2.145745926708185</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.294382816846673</v>
+        <v>2.285673588506416</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.429074291747457</v>
+        <v>2.429302280131693</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.517012416783068</v>
+        <v>1.505474901852734</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.600382536963684</v>
+        <v>1.606086633568723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.812984422782907</v>
+        <v>1.808871376320881</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.469459057930283</v>
+        <v>3.470150462321841</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.544632926247128</v>
+        <v>3.548403057613752</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.549020298425031</v>
+        <v>3.56557599348987</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.386087692985862</v>
+        <v>2.377499258768591</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.504273401382497</v>
+        <v>2.495681811597302</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.639716319265218</v>
+        <v>2.646604136985341</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.21385403876586</v>
+        <v>1.220044249738247</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.670612460606555</v>
+        <v>1.668735083054234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.868312195691155</v>
+        <v>1.886974897210232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.015668162696305</v>
+        <v>4.005728347060252</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.044233589009385</v>
+        <v>4.041152117147993</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.746755956478518</v>
+        <v>3.75526409303976</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.67762105602135</v>
+        <v>2.689617144608154</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.896885685375016</v>
+        <v>2.906203385865976</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.826865272916663</v>
+        <v>2.827979752195588</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.449802986239263</v>
+        <v>1.463050640138852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.912049538761005</v>
+        <v>1.917608756349668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.092093519295137</v>
+        <v>2.109500426067865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.393236170830583</v>
+        <v>4.374248925124991</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.364881366784139</v>
+        <v>4.348809383590981</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.059679962754624</v>
+        <v>4.062145667811418</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.962214746219023</v>
+        <v>2.969134222864066</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.153740351459615</v>
+        <v>3.147948044751014</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.044520195252657</v>
+        <v>3.045736609876158</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>1.860980521683218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.376645152437781</v>
+        <v>4.37664515243778</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>4.218050608076994</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.274642894128381</v>
+        <v>1.278708219792214</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.409661718873112</v>
+        <v>1.420319884242511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.745226138100993</v>
+        <v>1.739295555271121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.185433526188535</v>
+        <v>4.173176698803872</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.061767820192608</v>
+        <v>4.035849121522836</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.814831997531499</v>
+        <v>3.804018127823627</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.74104658708127</v>
+        <v>2.739024675857425</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.768511329350747</v>
+        <v>2.756152369212796</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.828758333319465</v>
+        <v>2.839490826117485</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.660009775633231</v>
+        <v>1.666262980967915</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.650475060500795</v>
+        <v>1.67009886722507</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.029968313040879</v>
+        <v>2.021778317782424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.577927470800888</v>
+        <v>4.585488224013775</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.412686844618821</v>
+        <v>4.382750409862496</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.109783804273349</v>
+        <v>4.09865388750991</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.07344693712085</v>
+        <v>3.075060056185427</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.038098350758685</v>
+        <v>3.023024380473129</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.066303839309459</v>
+        <v>3.063246845792111</v>
       </c>
     </row>
     <row r="16">
@@ -1081,7 +1081,7 @@
         <v>1.680452007025662</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.171580457183471</v>
+        <v>4.171580457183472</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>4.133975639829907</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.157934734601411</v>
+        <v>1.165463715622713</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.279917138482528</v>
+        <v>1.271448235779541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.540354927975577</v>
+        <v>1.541587544218147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.966838505436758</v>
+        <v>3.948838994610396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.89985424504979</v>
+        <v>3.95144747426293</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.630982753058145</v>
+        <v>3.648675412124186</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.620384210334611</v>
+        <v>2.62432435270858</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.642477407095129</v>
+        <v>2.644808096486686</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.667217870965501</v>
+        <v>2.658956837713087</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.611142994335762</v>
+        <v>1.638131156375141</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.60597615097927</v>
+        <v>1.590814758998561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.830937858032778</v>
+        <v>1.828456336444597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.427701059521021</v>
+        <v>4.409427186909952</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.350614691568563</v>
+        <v>4.390273207253369</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.994659102867953</v>
+        <v>3.995572722900313</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.985486041047091</v>
+        <v>2.999868307290489</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.98979021600452</v>
+        <v>2.97350411995555</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.944320598212383</v>
+        <v>2.933222431368285</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.041455701788966</v>
+        <v>1.03421472186198</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.222283628141344</v>
+        <v>1.217354516232813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.476286438070105</v>
+        <v>1.485628454697896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.258139469663632</v>
+        <v>3.275924657198329</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.19831748138892</v>
+        <v>3.174720978166099</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.47195118459845</v>
+        <v>3.490949476877218</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.274132960393191</v>
+        <v>2.263718132885288</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.305779182039843</v>
+        <v>2.307521603865826</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.589868188955578</v>
+        <v>2.579403505500026</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.422594448444739</v>
+        <v>1.430649931619885</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.669065521283393</v>
+        <v>1.668851629994749</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.838799327068443</v>
+        <v>1.830631025231389</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.707541001620231</v>
+        <v>3.712261659338286</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.645767521042643</v>
+        <v>3.611811371062477</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.909208369979798</v>
+        <v>3.911474388870123</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.622285848661386</v>
+        <v>2.604236915342973</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.663108568999966</v>
+        <v>2.636866390568975</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.927279320824095</v>
+        <v>2.903930155488799</v>
       </c>
     </row>
     <row r="22">
@@ -1299,10 +1299,10 @@
         <v>1.212752129955842</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.8236584192428</v>
+        <v>2.823658419242801</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>2.245627120830881</v>
+        <v>2.245627120830882</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>2.625809058183671</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8855675112254695</v>
+        <v>0.9067293410782986</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9994678302813862</v>
+        <v>0.9884892976321767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.082036707395526</v>
+        <v>1.08283876121489</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.557110326643892</v>
+        <v>2.541559388579482</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.046708492038836</v>
+        <v>2.027808345747017</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.421875961945571</v>
+        <v>2.414902388530976</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.942420404741735</v>
+        <v>1.960130020765975</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.680680402612231</v>
+        <v>1.679504075634127</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.921830852234978</v>
+        <v>1.939195634478887</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.300261841504421</v>
+        <v>1.32425302019419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.413623412950458</v>
+        <v>1.424824988374742</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.374500474274232</v>
+        <v>1.372093656279517</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.203255357060978</v>
+        <v>3.14903822116829</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.464460181467157</v>
+        <v>2.45288559493043</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.851156492771148</v>
+        <v>2.829921663539293</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.377208674998889</v>
+        <v>2.396963866938773</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.979238050600409</v>
+        <v>1.983391281128114</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.231880891684125</v>
+        <v>2.2328911635085</v>
       </c>
     </row>
     <row r="25">
@@ -1417,7 +1417,7 @@
         <v>3.461689200294664</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>2.4278450180709</v>
+        <v>2.427845018070899</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2.505599931205924</v>
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.199123170181036</v>
+        <v>1.207624784339747</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.400380913152676</v>
+        <v>1.401123957189723</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.641650575526643</v>
+        <v>1.641744753514489</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.46977274063312</v>
+        <v>3.469855463011387</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.43090131551781</v>
+        <v>3.439269525540559</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.395370647126696</v>
+        <v>3.392432882202285</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.370239869253242</v>
+        <v>2.369076772093632</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.448420958199571</v>
+        <v>2.454869157060852</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.562393219938643</v>
+        <v>2.563820165373758</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.322935070874959</v>
+        <v>1.33181556404537</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.510404232452937</v>
+        <v>1.509927494084265</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.741212501015313</v>
+        <v>1.74637382692213</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.639112873449867</v>
+        <v>3.629313610386968</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.583298640161479</v>
+        <v>3.587418353336731</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.531441486847103</v>
+        <v>3.529313606312455</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.489590312510248</v>
+        <v>2.49266156807819</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.556818740945852</v>
+        <v>2.560964884427485</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.660500885554473</v>
+        <v>2.661245196745421</v>
       </c>
     </row>
     <row r="28">
